--- a/Data/ScriptData/Advocate_ArchitectBlueprintingData101.xlsx
+++ b/Data/ScriptData/Advocate_ArchitectBlueprintingData101.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Omnicell_Blueprinting_Tool\Data\ScriptData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Omnicell\Projects\AdvocateAurora\Data\ScriptData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056CA616-255D-431F-BDC2-FA0F610434D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCEAD40D-262C-4757-8549-F37D2F972720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26745" yWindow="1185" windowWidth="22200" windowHeight="14415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3315" yWindow="4155" windowWidth="24165" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VisioData" sheetId="1" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="342">
   <si>
     <t>Shape</t>
   </si>
@@ -341,9 +341,6 @@
 </t>
   </si>
   <si>
-    <t>Unfilfulled Items??</t>
-  </si>
-  <si>
     <t>ADC Refill Requests</t>
   </si>
   <si>
@@ -368,9 +365,6 @@
   </si>
   <si>
     <t>ADC Refills</t>
-  </si>
-  <si>
-    <t>EDI 850 / (855,810) ?</t>
   </si>
   <si>
     <t>PortsLDAP_info:1</t>
@@ -1344,6 +1338,12 @@
   </si>
   <si>
     <t>Custom Stencil - Point to the path locations where this is saved</t>
+  </si>
+  <si>
+    <t>EDI 850</t>
+  </si>
+  <si>
+    <t>HL7</t>
   </si>
 </sst>
 </file>
@@ -1991,7 +1991,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2065,9 +2065,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2519,8 +2516,8 @@
   <dimension ref="A1:AG114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3:E4"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V48" sqref="V48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2560,50 +2557,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="B1" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="C1" s="49" t="s">
-        <v>280</v>
-      </c>
-      <c r="D1" s="49" t="s">
+      <c r="A1" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>278</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>307</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>311</v>
-      </c>
       <c r="H1" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>179</v>
       </c>
       <c r="P1" s="6" t="s">
         <v>8</v>
@@ -2612,12 +2609,12 @@
         <v>7</v>
       </c>
       <c r="R1" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="S1" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="S1" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="50" t="s">
+      <c r="T1" s="49" t="s">
         <v>4</v>
       </c>
       <c r="U1" s="7" t="s">
@@ -2627,42 +2624,42 @@
         <v>6</v>
       </c>
       <c r="W1" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y1" s="32" t="s">
         <v>161</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Z1" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="Y1" s="33" t="s">
+      <c r="AA1" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="Z1" s="33" t="s">
+      <c r="AB1" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="AA1" s="33" t="s">
+      <c r="AC1" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="AB1" s="33" t="s">
+      <c r="AD1" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AE1" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="AD1" s="34" t="s">
+      <c r="AF1" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="AE1" s="34" t="s">
+      <c r="AG1" s="33" t="s">
         <v>169</v>
-      </c>
-      <c r="AF1" s="34" t="s">
-        <v>170</v>
-      </c>
-      <c r="AG1" s="34" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -2702,14 +2699,14 @@
         <v>0</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D3" s="17"/>
-      <c r="E3" s="44" t="s">
-        <v>340</v>
+      <c r="E3" s="43" t="s">
+        <v>338</v>
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="21"/>
@@ -2753,14 +2750,14 @@
         <v>0</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D4" s="17"/>
-      <c r="E4" s="44" t="s">
-        <v>341</v>
+      <c r="E4" s="43" t="s">
+        <v>339</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="21"/>
@@ -2803,17 +2800,17 @@
       <c r="A5" s="16">
         <v>0</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5" s="43" t="s">
         <v>304</v>
       </c>
-      <c r="C5" s="44" t="s">
-        <v>306</v>
-      </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44" t="s">
-        <v>305</v>
-      </c>
-      <c r="F5" s="44"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43" t="s">
+        <v>303</v>
+      </c>
+      <c r="F5" s="43"/>
       <c r="G5" s="21"/>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
@@ -2852,19 +2849,19 @@
     </row>
     <row r="6" spans="1:33" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>304</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>307</v>
-      </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44" t="s">
-        <v>308</v>
-      </c>
-      <c r="F6" s="44"/>
+        <v>277</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43" t="s">
+        <v>306</v>
+      </c>
+      <c r="F6" s="43"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -2903,7 +2900,7 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -2946,10 +2943,10 @@
         <v>0</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
@@ -2997,23 +2994,23 @@
         <v>0</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
@@ -3054,13 +3051,13 @@
         <v>0</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="21">
@@ -3077,16 +3074,16 @@
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
       <c r="R10" s="21"/>
-      <c r="S10" s="26">
+      <c r="S10" s="24">
         <v>0.25</v>
       </c>
-      <c r="T10" s="26">
+      <c r="T10" s="24">
         <v>1.8125</v>
       </c>
-      <c r="U10" s="26">
-        <v>0</v>
-      </c>
-      <c r="V10" s="26">
+      <c r="U10" s="24">
+        <v>0</v>
+      </c>
+      <c r="V10" s="24">
         <v>1.125</v>
       </c>
       <c r="W10" s="21"/>
@@ -3146,10 +3143,10 @@
         <v>0</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>22</v>
@@ -3171,7 +3168,7 @@
         <v>0.25</v>
       </c>
       <c r="T12" s="24">
-        <v>9.875</v>
+        <v>9.75</v>
       </c>
       <c r="U12" s="24">
         <v>2.6</v>
@@ -3199,13 +3196,13 @@
         <v>0</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -3233,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="X13" s="21"/>
       <c r="Y13" s="23"/>
@@ -3241,11 +3238,13 @@
       <c r="AA13" s="19"/>
       <c r="AB13" s="23"/>
       <c r="AC13" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD13" s="23"/>
+        <v>77</v>
+      </c>
+      <c r="AD13" s="23" t="s">
+        <v>341</v>
+      </c>
       <c r="AE13" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF13" s="19" t="s">
         <v>17</v>
@@ -3262,13 +3261,13 @@
         <v>0</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -3296,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="X14" s="21"/>
       <c r="Y14" s="23"/>
@@ -3304,11 +3303,11 @@
       <c r="AA14" s="19"/>
       <c r="AB14" s="23"/>
       <c r="AC14" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AD14" s="23"/>
       <c r="AE14" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF14" s="19" t="s">
         <v>17</v>
@@ -3325,13 +3324,13 @@
         <v>0</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -3359,29 +3358,19 @@
         <v>0</v>
       </c>
       <c r="W15" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="X15" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y15" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z15" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA15" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB15" s="23" t="s">
-        <v>11</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="23"/>
+      <c r="AB15" s="23"/>
       <c r="AC15" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AD15" s="23"/>
       <c r="AE15" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF15" s="19" t="s">
         <v>17</v>
@@ -3398,13 +3387,13 @@
         <v>0</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
@@ -3432,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="X16" s="21"/>
       <c r="Y16" s="23"/>
@@ -3440,11 +3429,11 @@
       <c r="AA16" s="19"/>
       <c r="AB16" s="23"/>
       <c r="AC16" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AD16" s="23"/>
       <c r="AE16" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF16" s="19" t="s">
         <v>17</v>
@@ -3461,15 +3450,17 @@
         <v>0</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="21"/>
+        <v>76</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>312</v>
+      </c>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
@@ -3495,16 +3486,16 @@
         <v>0</v>
       </c>
       <c r="W17" s="24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="X17" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y17" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z17" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AA17" s="23" t="s">
         <v>19</v>
@@ -3513,19 +3504,19 @@
         <v>26</v>
       </c>
       <c r="AC17" s="23" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AD17" s="23" t="s">
-        <v>43</v>
+        <v>340</v>
       </c>
       <c r="AE17" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF17" s="23" t="s">
         <v>20</v>
       </c>
       <c r="AG17" s="23" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
@@ -3535,7 +3526,7 @@
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -3575,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
@@ -3626,10 +3617,10 @@
         <v>0</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>29</v>
@@ -3681,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>30</v>
@@ -3736,10 +3727,10 @@
         <v>0</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>31</v>
@@ -3791,10 +3782,10 @@
         <v>0</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>24</v>
@@ -3846,10 +3837,10 @@
         <v>0</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>25</v>
@@ -3901,13 +3892,13 @@
         <v>0</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
@@ -3955,7 +3946,7 @@
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -3995,13 +3986,13 @@
         <v>0</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -4048,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
@@ -4136,10 +4127,10 @@
         <v>0</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E30" s="21" t="s">
         <v>32</v>
@@ -4155,7 +4146,7 @@
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
       <c r="P30" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q30" s="22"/>
       <c r="R30" s="23"/>
@@ -4175,11 +4166,11 @@
         <v>26</v>
       </c>
       <c r="X30" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y30" s="23"/>
       <c r="Z30" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AA30" s="23" t="s">
         <v>17</v>
@@ -4188,13 +4179,13 @@
         <v>10</v>
       </c>
       <c r="AC30" s="23" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AD30" s="23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AE30" s="23" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AF30" s="23" t="s">
         <v>20</v>
@@ -4211,10 +4202,10 @@
         <v>0</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E31" s="21" t="s">
         <v>33</v>
@@ -4230,7 +4221,7 @@
       <c r="N31" s="21"/>
       <c r="O31" s="21"/>
       <c r="P31" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q31" s="22"/>
       <c r="R31" s="23"/>
@@ -4250,11 +4241,11 @@
         <v>26</v>
       </c>
       <c r="X31" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y31" s="23"/>
       <c r="Z31" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AA31" s="23" t="s">
         <v>17</v>
@@ -4276,17 +4267,17 @@
         <v>0</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H32" s="21"/>
       <c r="I32" s="21"/>
@@ -4303,7 +4294,7 @@
         <v>0.25</v>
       </c>
       <c r="T32" s="24">
-        <v>7.0880000000000001</v>
+        <v>6.9630000000000001</v>
       </c>
       <c r="U32" s="24">
         <v>2</v>
@@ -4325,7 +4316,7 @@
     </row>
     <row r="33" spans="1:33" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
@@ -4368,17 +4359,17 @@
         <v>0</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D34" s="21" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F34" s="21"/>
       <c r="G34" s="21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
@@ -4423,13 +4414,13 @@
         <v>0</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
@@ -4442,7 +4433,7 @@
       <c r="N35" s="21"/>
       <c r="O35" s="21"/>
       <c r="P35" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q35" s="22"/>
       <c r="R35" s="23"/>
@@ -4462,11 +4453,11 @@
         <v>13</v>
       </c>
       <c r="X35" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y35" s="23"/>
       <c r="Z35" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AA35" s="23" t="s">
         <v>17</v>
@@ -4488,13 +4479,13 @@
         <v>0</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
@@ -4528,11 +4519,11 @@
       <c r="AA36" s="19"/>
       <c r="AB36" s="23"/>
       <c r="AC36" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AD36" s="23"/>
       <c r="AE36" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF36" s="23" t="s">
         <v>17</v>
@@ -4549,13 +4540,13 @@
         <v>0</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
@@ -4589,11 +4580,11 @@
       <c r="AA37" s="19"/>
       <c r="AB37" s="23"/>
       <c r="AC37" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AD37" s="23"/>
       <c r="AE37" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF37" s="23" t="s">
         <v>17</v>
@@ -4610,13 +4601,13 @@
         <v>0</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
@@ -4629,7 +4620,7 @@
       <c r="N38" s="21"/>
       <c r="O38" s="21"/>
       <c r="P38" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q38" s="22"/>
       <c r="R38" s="23"/>
@@ -4649,11 +4640,11 @@
         <v>13</v>
       </c>
       <c r="X38" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y38" s="23"/>
       <c r="Z38" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AA38" s="23" t="s">
         <v>17</v>
@@ -4662,11 +4653,11 @@
         <v>12</v>
       </c>
       <c r="AC38" s="23" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AD38" s="23"/>
       <c r="AE38" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF38" s="23" t="s">
         <v>17</v>
@@ -4683,10 +4674,10 @@
         <v>0</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
@@ -4721,11 +4712,11 @@
       <c r="AA39" s="19"/>
       <c r="AB39" s="23"/>
       <c r="AC39" s="23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AD39" s="23"/>
       <c r="AE39" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF39" s="23" t="s">
         <v>17</v>
@@ -4736,7 +4727,7 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B40" s="10"/>
       <c r="C40" s="10"/>
@@ -4779,17 +4770,17 @@
         <v>0</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F41" s="21"/>
       <c r="G41" s="21" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H41" s="21"/>
       <c r="I41" s="21"/>
@@ -4834,13 +4825,13 @@
         <v>0</v>
       </c>
       <c r="C42" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F42" s="21"/>
       <c r="G42" s="21"/>
@@ -4853,7 +4844,7 @@
       <c r="N42" s="21"/>
       <c r="O42" s="21"/>
       <c r="P42" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q42" s="22"/>
       <c r="R42" s="23"/>
@@ -4873,11 +4864,11 @@
         <v>12</v>
       </c>
       <c r="X42" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y42" s="23"/>
       <c r="Z42" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AA42" s="23" t="s">
         <v>17</v>
@@ -4899,13 +4890,13 @@
         <v>0</v>
       </c>
       <c r="C43" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
@@ -4918,7 +4909,7 @@
       <c r="N43" s="21"/>
       <c r="O43" s="21"/>
       <c r="P43" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q43" s="22"/>
       <c r="R43" s="23"/>
@@ -4938,11 +4929,11 @@
         <v>12</v>
       </c>
       <c r="X43" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Y43" s="23"/>
       <c r="Z43" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AA43" s="23" t="s">
         <v>17</v>
@@ -4951,11 +4942,11 @@
         <v>12</v>
       </c>
       <c r="AC43" s="23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AD43" s="23"/>
       <c r="AE43" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF43" s="23" t="s">
         <v>17</v>
@@ -4972,13 +4963,13 @@
         <v>0</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
@@ -5012,11 +5003,11 @@
       <c r="AA44" s="19"/>
       <c r="AB44" s="23"/>
       <c r="AC44" s="23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AD44" s="23"/>
       <c r="AE44" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF44" s="23" t="s">
         <v>17</v>
@@ -5027,7 +5018,7 @@
     </row>
     <row r="45" spans="1:33" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -5070,10 +5061,10 @@
         <v>0</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
@@ -5121,13 +5112,13 @@
         <v>0</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F47" s="21"/>
       <c r="G47" s="21"/>
@@ -5174,16 +5165,16 @@
         <v>0</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D48" s="21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F48" s="21"/>
-      <c r="G48" s="32">
+      <c r="G48" s="31">
         <v>10</v>
       </c>
       <c r="H48" s="21"/>
@@ -5197,17 +5188,17 @@
       <c r="P48" s="22"/>
       <c r="Q48" s="22"/>
       <c r="R48" s="21"/>
-      <c r="S48" s="26">
+      <c r="S48" s="24">
         <v>0.25</v>
       </c>
-      <c r="T48" s="26">
-        <v>1.75</v>
-      </c>
-      <c r="U48" s="26">
-        <v>0</v>
-      </c>
-      <c r="V48" s="26">
-        <v>1.125</v>
+      <c r="T48" s="24">
+        <v>1.625</v>
+      </c>
+      <c r="U48" s="24">
+        <v>0</v>
+      </c>
+      <c r="V48" s="24">
+        <v>0.9</v>
       </c>
       <c r="W48" s="21"/>
       <c r="X48" s="21"/>
@@ -5223,7 +5214,7 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B49" s="10"/>
       <c r="C49" s="10"/>
@@ -5266,13 +5257,13 @@
         <v>0</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F50" s="21"/>
       <c r="G50" s="21"/>
@@ -5319,13 +5310,13 @@
         <v>0</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F51" s="21"/>
       <c r="G51" s="21"/>
@@ -5366,7 +5357,7 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="10"/>
@@ -5409,13 +5400,13 @@
         <v>0</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
@@ -5449,11 +5440,11 @@
       <c r="AA53" s="19"/>
       <c r="AB53" s="23"/>
       <c r="AC53" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AD53" s="19"/>
       <c r="AE53" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF53" s="19" t="s">
         <v>18</v>
@@ -5468,13 +5459,13 @@
         <v>0</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
@@ -5508,134 +5499,134 @@
       <c r="AA54" s="19"/>
       <c r="AB54" s="23"/>
       <c r="AC54" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AD54" s="19"/>
       <c r="AE54" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF54" s="19" t="s">
         <v>18</v>
       </c>
       <c r="AG54" s="19"/>
     </row>
-    <row r="55" spans="1:33" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="27">
+    <row r="55" spans="1:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="26">
         <v>2</v>
       </c>
-      <c r="B55" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="E55" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="28"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="28"/>
-      <c r="P55" s="29"/>
-      <c r="Q55" s="29"/>
-      <c r="R55" s="27"/>
-      <c r="S55" s="30">
+      <c r="B55" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="E55" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="27"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="27"/>
+      <c r="P55" s="28"/>
+      <c r="Q55" s="28"/>
+      <c r="R55" s="26"/>
+      <c r="S55" s="29">
         <v>0.77900000000000003</v>
       </c>
-      <c r="T55" s="30">
+      <c r="T55" s="29">
         <v>6.625</v>
       </c>
-      <c r="U55" s="30">
-        <v>0</v>
-      </c>
-      <c r="V55" s="30">
-        <v>0</v>
-      </c>
-      <c r="W55" s="30"/>
-      <c r="X55" s="28"/>
-      <c r="Y55" s="27"/>
-      <c r="Z55" s="27"/>
-      <c r="AA55" s="27"/>
-      <c r="AB55" s="27"/>
-      <c r="AC55" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD55" s="27"/>
-      <c r="AE55" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF55" s="27" t="s">
+      <c r="U55" s="29">
+        <v>0</v>
+      </c>
+      <c r="V55" s="29">
+        <v>0</v>
+      </c>
+      <c r="W55" s="29"/>
+      <c r="X55" s="27"/>
+      <c r="Y55" s="26"/>
+      <c r="Z55" s="26"/>
+      <c r="AA55" s="26"/>
+      <c r="AB55" s="26"/>
+      <c r="AC55" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD55" s="26"/>
+      <c r="AE55" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF55" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AG55" s="27"/>
-    </row>
-    <row r="56" spans="1:33" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="27">
+      <c r="AG55" s="26"/>
+    </row>
+    <row r="56" spans="1:33" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="26">
         <v>2</v>
       </c>
-      <c r="B56" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C56" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="E56" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="28"/>
-      <c r="P56" s="29"/>
-      <c r="Q56" s="29"/>
-      <c r="R56" s="27"/>
-      <c r="S56" s="30">
+      <c r="B56" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="E56" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="27"/>
+      <c r="M56" s="27"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="27"/>
+      <c r="P56" s="28"/>
+      <c r="Q56" s="28"/>
+      <c r="R56" s="26"/>
+      <c r="S56" s="29">
         <v>2</v>
       </c>
-      <c r="T56" s="30">
+      <c r="T56" s="29">
         <v>6.55</v>
       </c>
-      <c r="U56" s="30">
-        <v>0</v>
-      </c>
-      <c r="V56" s="30">
-        <v>0</v>
-      </c>
-      <c r="W56" s="30"/>
-      <c r="X56" s="28"/>
-      <c r="Y56" s="27"/>
-      <c r="Z56" s="27"/>
-      <c r="AA56" s="27"/>
-      <c r="AB56" s="27"/>
-      <c r="AC56" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD56" s="27"/>
-      <c r="AE56" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF56" s="27" t="s">
+      <c r="U56" s="29">
+        <v>0</v>
+      </c>
+      <c r="V56" s="29">
+        <v>0</v>
+      </c>
+      <c r="W56" s="29"/>
+      <c r="X56" s="27"/>
+      <c r="Y56" s="26"/>
+      <c r="Z56" s="26"/>
+      <c r="AA56" s="26"/>
+      <c r="AB56" s="26"/>
+      <c r="AC56" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD56" s="26"/>
+      <c r="AE56" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF56" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AG56" s="27"/>
+      <c r="AG56" s="26"/>
     </row>
     <row r="57" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23">
@@ -5645,13 +5636,13 @@
         <v>0</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F57" s="17"/>
       <c r="G57" s="17"/>
@@ -5685,11 +5676,11 @@
       <c r="AA57" s="19"/>
       <c r="AB57" s="23"/>
       <c r="AC57" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AD57" s="19"/>
       <c r="AE57" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF57" s="19" t="s">
         <v>18</v>
@@ -5704,13 +5695,13 @@
         <v>0</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F58" s="17"/>
       <c r="G58" s="17"/>
@@ -5744,134 +5735,134 @@
       <c r="AA58" s="19"/>
       <c r="AB58" s="23"/>
       <c r="AC58" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AD58" s="19"/>
       <c r="AE58" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF58" s="19" t="s">
         <v>18</v>
       </c>
       <c r="AG58" s="19"/>
     </row>
-    <row r="59" spans="1:33" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="27">
+    <row r="59" spans="1:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="26">
         <v>2</v>
       </c>
-      <c r="B59" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D59" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="E59" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
-      <c r="K59" s="28"/>
-      <c r="L59" s="28"/>
-      <c r="M59" s="28"/>
-      <c r="N59" s="28"/>
-      <c r="O59" s="28"/>
-      <c r="P59" s="29"/>
-      <c r="Q59" s="29"/>
-      <c r="R59" s="27"/>
-      <c r="S59" s="30">
+      <c r="B59" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="27"/>
+      <c r="M59" s="27"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="28"/>
+      <c r="Q59" s="28"/>
+      <c r="R59" s="26"/>
+      <c r="S59" s="29">
         <v>0.7</v>
       </c>
-      <c r="T59" s="30">
+      <c r="T59" s="29">
         <v>5.3330000000000002</v>
       </c>
-      <c r="U59" s="30">
-        <v>0</v>
-      </c>
-      <c r="V59" s="30">
-        <v>0</v>
-      </c>
-      <c r="W59" s="30"/>
-      <c r="X59" s="28"/>
-      <c r="Y59" s="27"/>
-      <c r="Z59" s="27"/>
-      <c r="AA59" s="27"/>
-      <c r="AB59" s="27"/>
-      <c r="AC59" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD59" s="27"/>
-      <c r="AE59" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF59" s="27" t="s">
+      <c r="U59" s="29">
+        <v>0</v>
+      </c>
+      <c r="V59" s="29">
+        <v>0</v>
+      </c>
+      <c r="W59" s="29"/>
+      <c r="X59" s="27"/>
+      <c r="Y59" s="26"/>
+      <c r="Z59" s="26"/>
+      <c r="AA59" s="26"/>
+      <c r="AB59" s="26"/>
+      <c r="AC59" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD59" s="26"/>
+      <c r="AE59" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF59" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AG59" s="27"/>
-    </row>
-    <row r="60" spans="1:33" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="27">
+      <c r="AG59" s="26"/>
+    </row>
+    <row r="60" spans="1:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="26">
         <v>2</v>
       </c>
-      <c r="B60" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D60" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="E60" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="28"/>
-      <c r="M60" s="28"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="28"/>
-      <c r="P60" s="29"/>
-      <c r="Q60" s="29"/>
-      <c r="R60" s="27"/>
-      <c r="S60" s="30">
+      <c r="B60" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="E60" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="27"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="27"/>
+      <c r="P60" s="28"/>
+      <c r="Q60" s="28"/>
+      <c r="R60" s="26"/>
+      <c r="S60" s="29">
         <v>2</v>
       </c>
-      <c r="T60" s="30">
+      <c r="T60" s="29">
         <v>5.3330000000000002</v>
       </c>
-      <c r="U60" s="30">
-        <v>0</v>
-      </c>
-      <c r="V60" s="30">
-        <v>0</v>
-      </c>
-      <c r="W60" s="30"/>
-      <c r="X60" s="28"/>
-      <c r="Y60" s="27"/>
-      <c r="Z60" s="27"/>
-      <c r="AA60" s="27"/>
-      <c r="AB60" s="27"/>
-      <c r="AC60" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD60" s="27"/>
-      <c r="AE60" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF60" s="27" t="s">
+      <c r="U60" s="29">
+        <v>0</v>
+      </c>
+      <c r="V60" s="29">
+        <v>0</v>
+      </c>
+      <c r="W60" s="29"/>
+      <c r="X60" s="27"/>
+      <c r="Y60" s="26"/>
+      <c r="Z60" s="26"/>
+      <c r="AA60" s="26"/>
+      <c r="AB60" s="26"/>
+      <c r="AC60" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD60" s="26"/>
+      <c r="AE60" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF60" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AG60" s="27"/>
+      <c r="AG60" s="26"/>
     </row>
     <row r="61" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
@@ -5881,13 +5872,13 @@
         <v>0</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E61" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F61" s="17"/>
       <c r="G61" s="17"/>
@@ -5921,11 +5912,11 @@
       <c r="AA61" s="19"/>
       <c r="AB61" s="23"/>
       <c r="AC61" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AD61" s="19"/>
       <c r="AE61" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF61" s="19" t="s">
         <v>18</v>
@@ -5940,13 +5931,13 @@
         <v>0</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E62" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F62" s="17"/>
       <c r="G62" s="17"/>
@@ -5980,134 +5971,134 @@
       <c r="AA62" s="19"/>
       <c r="AB62" s="23"/>
       <c r="AC62" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AD62" s="19"/>
       <c r="AE62" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF62" s="19" t="s">
         <v>18</v>
       </c>
       <c r="AG62" s="19"/>
     </row>
-    <row r="63" spans="1:33" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="27">
+    <row r="63" spans="1:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="26">
         <v>2</v>
       </c>
-      <c r="B63" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" s="28" t="s">
+      <c r="B63" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="E63" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="27"/>
+      <c r="M63" s="27"/>
+      <c r="N63" s="27"/>
+      <c r="O63" s="27"/>
+      <c r="P63" s="28"/>
+      <c r="Q63" s="28"/>
+      <c r="R63" s="26"/>
+      <c r="S63" s="29">
+        <v>0.7</v>
+      </c>
+      <c r="T63" s="29">
+        <v>4.0830000000000002</v>
+      </c>
+      <c r="U63" s="29">
+        <v>0</v>
+      </c>
+      <c r="V63" s="29">
+        <v>0</v>
+      </c>
+      <c r="W63" s="29"/>
+      <c r="X63" s="27"/>
+      <c r="Y63" s="26"/>
+      <c r="Z63" s="26"/>
+      <c r="AA63" s="26"/>
+      <c r="AB63" s="26"/>
+      <c r="AC63" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="D63" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="E63" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="28"/>
-      <c r="L63" s="28"/>
-      <c r="M63" s="28"/>
-      <c r="N63" s="28"/>
-      <c r="O63" s="28"/>
-      <c r="P63" s="29"/>
-      <c r="Q63" s="29"/>
-      <c r="R63" s="27"/>
-      <c r="S63" s="30">
-        <v>0.7</v>
-      </c>
-      <c r="T63" s="30">
+      <c r="AD63" s="26"/>
+      <c r="AE63" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF63" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG63" s="26"/>
+    </row>
+    <row r="64" spans="1:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="26">
+        <v>2</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="E64" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="27"/>
+      <c r="M64" s="27"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="27"/>
+      <c r="P64" s="28"/>
+      <c r="Q64" s="28"/>
+      <c r="R64" s="26"/>
+      <c r="S64" s="29">
+        <v>2</v>
+      </c>
+      <c r="T64" s="29">
         <v>4.0830000000000002</v>
       </c>
-      <c r="U63" s="30">
-        <v>0</v>
-      </c>
-      <c r="V63" s="30">
-        <v>0</v>
-      </c>
-      <c r="W63" s="30"/>
-      <c r="X63" s="28"/>
-      <c r="Y63" s="27"/>
-      <c r="Z63" s="27"/>
-      <c r="AA63" s="27"/>
-      <c r="AB63" s="27"/>
-      <c r="AC63" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD63" s="27"/>
-      <c r="AE63" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF63" s="27" t="s">
+      <c r="U64" s="29">
+        <v>0</v>
+      </c>
+      <c r="V64" s="29">
+        <v>0</v>
+      </c>
+      <c r="W64" s="29"/>
+      <c r="X64" s="27"/>
+      <c r="Y64" s="26"/>
+      <c r="Z64" s="26"/>
+      <c r="AA64" s="26"/>
+      <c r="AB64" s="26"/>
+      <c r="AC64" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD64" s="26"/>
+      <c r="AE64" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF64" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AG63" s="27"/>
-    </row>
-    <row r="64" spans="1:33" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="27">
-        <v>2</v>
-      </c>
-      <c r="B64" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C64" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D64" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="E64" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="28"/>
-      <c r="M64" s="28"/>
-      <c r="N64" s="28"/>
-      <c r="O64" s="28"/>
-      <c r="P64" s="29"/>
-      <c r="Q64" s="29"/>
-      <c r="R64" s="27"/>
-      <c r="S64" s="30">
-        <v>2</v>
-      </c>
-      <c r="T64" s="30">
-        <v>4.0830000000000002</v>
-      </c>
-      <c r="U64" s="30">
-        <v>0</v>
-      </c>
-      <c r="V64" s="30">
-        <v>0</v>
-      </c>
-      <c r="W64" s="30"/>
-      <c r="X64" s="28"/>
-      <c r="Y64" s="27"/>
-      <c r="Z64" s="27"/>
-      <c r="AA64" s="27"/>
-      <c r="AB64" s="27"/>
-      <c r="AC64" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD64" s="27"/>
-      <c r="AE64" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF64" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="AG64" s="27"/>
+      <c r="AG64" s="26"/>
     </row>
     <row r="65" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="23">
@@ -6117,13 +6108,13 @@
         <v>0</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E65" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F65" s="17"/>
       <c r="G65" s="17"/>
@@ -6157,11 +6148,11 @@
       <c r="AA65" s="19"/>
       <c r="AB65" s="23"/>
       <c r="AC65" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AD65" s="19"/>
       <c r="AE65" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AF65" s="19" t="s">
         <v>18</v>
@@ -6178,13 +6169,13 @@
         <v>0</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F66" s="17"/>
       <c r="G66" s="17"/>
@@ -6218,11 +6209,11 @@
       <c r="AA66" s="19"/>
       <c r="AB66" s="23"/>
       <c r="AC66" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AD66" s="19"/>
       <c r="AE66" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AF66" s="19" t="s">
         <v>18</v>
@@ -6239,13 +6230,13 @@
         <v>0</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
@@ -6286,123 +6277,123 @@
       <c r="AF67" s="23"/>
       <c r="AG67" s="23"/>
     </row>
-    <row r="68" spans="1:33" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="27">
+    <row r="68" spans="1:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="26">
         <v>2</v>
       </c>
-      <c r="B68" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C68" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D68" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="E68" s="28" t="s">
+      <c r="B68" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D68" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="E68" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="28"/>
-      <c r="M68" s="28"/>
-      <c r="N68" s="28"/>
-      <c r="O68" s="28"/>
-      <c r="P68" s="29"/>
-      <c r="Q68" s="29"/>
-      <c r="R68" s="27"/>
-      <c r="S68" s="30">
+      <c r="F68" s="27"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="27"/>
+      <c r="M68" s="27"/>
+      <c r="N68" s="27"/>
+      <c r="O68" s="27"/>
+      <c r="P68" s="28"/>
+      <c r="Q68" s="28"/>
+      <c r="R68" s="26"/>
+      <c r="S68" s="29">
         <v>0.7</v>
       </c>
-      <c r="T68" s="30">
+      <c r="T68" s="29">
         <v>2.75</v>
       </c>
-      <c r="U68" s="30">
-        <v>0</v>
-      </c>
-      <c r="V68" s="30">
-        <v>0</v>
-      </c>
-      <c r="W68" s="30"/>
-      <c r="X68" s="28"/>
-      <c r="Y68" s="27"/>
-      <c r="Z68" s="27"/>
-      <c r="AA68" s="27"/>
-      <c r="AB68" s="27"/>
-      <c r="AC68" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD68" s="27"/>
-      <c r="AE68" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF68" s="27" t="s">
+      <c r="U68" s="29">
+        <v>0</v>
+      </c>
+      <c r="V68" s="29">
+        <v>0</v>
+      </c>
+      <c r="W68" s="29"/>
+      <c r="X68" s="27"/>
+      <c r="Y68" s="26"/>
+      <c r="Z68" s="26"/>
+      <c r="AA68" s="26"/>
+      <c r="AB68" s="26"/>
+      <c r="AC68" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD68" s="26"/>
+      <c r="AE68" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF68" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AG68" s="27"/>
-    </row>
-    <row r="69" spans="1:33" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="27">
+      <c r="AG68" s="26"/>
+    </row>
+    <row r="69" spans="1:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="26">
         <v>2</v>
       </c>
-      <c r="B69" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C69" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D69" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="E69" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="28"/>
-      <c r="L69" s="28"/>
-      <c r="M69" s="28"/>
-      <c r="N69" s="28"/>
-      <c r="O69" s="28"/>
-      <c r="P69" s="29"/>
-      <c r="Q69" s="29"/>
-      <c r="R69" s="27"/>
-      <c r="S69" s="30">
+      <c r="B69" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="E69" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="27"/>
+      <c r="M69" s="27"/>
+      <c r="N69" s="27"/>
+      <c r="O69" s="27"/>
+      <c r="P69" s="28"/>
+      <c r="Q69" s="28"/>
+      <c r="R69" s="26"/>
+      <c r="S69" s="29">
         <v>2</v>
       </c>
-      <c r="T69" s="30">
+      <c r="T69" s="29">
         <v>2.75</v>
       </c>
-      <c r="U69" s="30">
-        <v>0</v>
-      </c>
-      <c r="V69" s="30">
-        <v>0</v>
-      </c>
-      <c r="W69" s="30"/>
-      <c r="X69" s="28"/>
-      <c r="Y69" s="27"/>
-      <c r="Z69" s="27"/>
-      <c r="AA69" s="27"/>
-      <c r="AB69" s="27"/>
-      <c r="AC69" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD69" s="27"/>
-      <c r="AE69" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF69" s="27" t="s">
+      <c r="U69" s="29">
+        <v>0</v>
+      </c>
+      <c r="V69" s="29">
+        <v>0</v>
+      </c>
+      <c r="W69" s="29"/>
+      <c r="X69" s="27"/>
+      <c r="Y69" s="26"/>
+      <c r="Z69" s="26"/>
+      <c r="AA69" s="26"/>
+      <c r="AB69" s="26"/>
+      <c r="AC69" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD69" s="26"/>
+      <c r="AE69" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF69" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AG69" s="27"/>
+      <c r="AG69" s="26"/>
     </row>
     <row r="70" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
@@ -6412,10 +6403,10 @@
         <v>0</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E70" s="17" t="s">
         <v>23</v>
@@ -6452,11 +6443,11 @@
       <c r="AA70" s="19"/>
       <c r="AB70" s="23"/>
       <c r="AC70" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AD70" s="19"/>
       <c r="AE70" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF70" s="19" t="s">
         <v>18</v>
@@ -6471,13 +6462,13 @@
         <v>0</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E71" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F71" s="17"/>
       <c r="G71" s="17"/>
@@ -6511,79 +6502,79 @@
       <c r="AA71" s="19"/>
       <c r="AB71" s="23"/>
       <c r="AC71" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AD71" s="19"/>
       <c r="AE71" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF71" s="19" t="s">
         <v>18</v>
       </c>
       <c r="AG71" s="19"/>
     </row>
-    <row r="72" spans="1:33" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="27">
+    <row r="72" spans="1:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="26">
         <v>2</v>
       </c>
-      <c r="B72" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C72" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="D72" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="E72" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
-      <c r="K72" s="28"/>
-      <c r="L72" s="28"/>
-      <c r="M72" s="28"/>
-      <c r="N72" s="28"/>
-      <c r="O72" s="28"/>
-      <c r="P72" s="29"/>
-      <c r="Q72" s="29"/>
-      <c r="R72" s="27"/>
-      <c r="S72" s="30">
+      <c r="B72" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="E72" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="27"/>
+      <c r="K72" s="27"/>
+      <c r="L72" s="27"/>
+      <c r="M72" s="27"/>
+      <c r="N72" s="27"/>
+      <c r="O72" s="27"/>
+      <c r="P72" s="28"/>
+      <c r="Q72" s="28"/>
+      <c r="R72" s="26"/>
+      <c r="S72" s="29">
         <v>3.25</v>
       </c>
-      <c r="T72" s="30">
+      <c r="T72" s="29">
         <v>4.5030000000000001</v>
       </c>
-      <c r="U72" s="30">
-        <v>0</v>
-      </c>
-      <c r="V72" s="30">
-        <v>0</v>
-      </c>
-      <c r="W72" s="30"/>
-      <c r="X72" s="28"/>
-      <c r="Y72" s="27"/>
-      <c r="Z72" s="27"/>
-      <c r="AA72" s="27"/>
-      <c r="AB72" s="27"/>
-      <c r="AC72" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD72" s="27"/>
-      <c r="AE72" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF72" s="27" t="s">
+      <c r="U72" s="29">
+        <v>0</v>
+      </c>
+      <c r="V72" s="29">
+        <v>0</v>
+      </c>
+      <c r="W72" s="29"/>
+      <c r="X72" s="27"/>
+      <c r="Y72" s="26"/>
+      <c r="Z72" s="26"/>
+      <c r="AA72" s="26"/>
+      <c r="AB72" s="26"/>
+      <c r="AC72" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD72" s="26"/>
+      <c r="AE72" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF72" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="AG72" s="27"/>
+      <c r="AG72" s="26"/>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -6626,13 +6617,13 @@
         <v>0</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F74" s="17"/>
       <c r="G74" s="17"/>
@@ -6666,11 +6657,11 @@
       <c r="AA74" s="19"/>
       <c r="AB74" s="23"/>
       <c r="AC74" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AD74" s="19"/>
       <c r="AE74" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF74" s="19" t="s">
         <v>18</v>
@@ -6685,13 +6676,13 @@
         <v>0</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E75" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F75" s="17"/>
       <c r="G75" s="17"/>
@@ -6725,11 +6716,11 @@
       <c r="AA75" s="19"/>
       <c r="AB75" s="23"/>
       <c r="AC75" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AD75" s="19"/>
       <c r="AE75" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF75" s="19" t="s">
         <v>18</v>
@@ -6738,7 +6729,7 @@
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B76" s="10"/>
       <c r="C76" s="10"/>
@@ -6781,13 +6772,13 @@
         <v>0</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F77" s="21"/>
       <c r="G77" s="21"/>
@@ -6828,16 +6819,16 @@
     </row>
     <row r="78" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B78" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D78" s="21" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E78" s="21"/>
       <c r="F78" s="21"/>
@@ -6879,7 +6870,7 @@
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="10"/>
@@ -6922,13 +6913,13 @@
         <v>0</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E80" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F80" s="17"/>
       <c r="G80" s="17"/>
@@ -6962,11 +6953,11 @@
       <c r="AA80" s="19"/>
       <c r="AB80" s="23"/>
       <c r="AC80" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AD80" s="19"/>
       <c r="AE80" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF80" s="19" t="s">
         <v>18</v>
@@ -6981,13 +6972,13 @@
         <v>0</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E81" s="17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F81" s="17"/>
       <c r="G81" s="17"/>
@@ -7021,134 +7012,134 @@
       <c r="AA81" s="19"/>
       <c r="AB81" s="23"/>
       <c r="AC81" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AD81" s="19"/>
       <c r="AE81" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF81" s="19" t="s">
         <v>18</v>
       </c>
       <c r="AG81" s="19"/>
     </row>
-    <row r="82" spans="1:33" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="27">
+    <row r="82" spans="1:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="26">
         <v>2</v>
       </c>
-      <c r="B82" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C82" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="D82" s="28" t="s">
-        <v>295</v>
-      </c>
-      <c r="E82" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
-      <c r="K82" s="28"/>
-      <c r="L82" s="28"/>
-      <c r="M82" s="28"/>
-      <c r="N82" s="28"/>
-      <c r="O82" s="28"/>
-      <c r="P82" s="29"/>
-      <c r="Q82" s="29"/>
-      <c r="R82" s="27"/>
-      <c r="S82" s="30">
+      <c r="B82" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="D82" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="E82" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="27"/>
+      <c r="K82" s="27"/>
+      <c r="L82" s="27"/>
+      <c r="M82" s="27"/>
+      <c r="N82" s="27"/>
+      <c r="O82" s="27"/>
+      <c r="P82" s="28"/>
+      <c r="Q82" s="28"/>
+      <c r="R82" s="26"/>
+      <c r="S82" s="29">
         <v>7.7240000000000002</v>
       </c>
-      <c r="T82" s="30">
+      <c r="T82" s="29">
         <v>6.625</v>
       </c>
-      <c r="U82" s="30">
-        <v>0</v>
-      </c>
-      <c r="V82" s="30">
-        <v>0</v>
-      </c>
-      <c r="W82" s="30"/>
-      <c r="X82" s="28"/>
-      <c r="Y82" s="27"/>
-      <c r="Z82" s="27"/>
-      <c r="AA82" s="27"/>
-      <c r="AB82" s="27"/>
-      <c r="AC82" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD82" s="27"/>
-      <c r="AE82" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF82" s="27" t="s">
+      <c r="U82" s="29">
+        <v>0</v>
+      </c>
+      <c r="V82" s="29">
+        <v>0</v>
+      </c>
+      <c r="W82" s="29"/>
+      <c r="X82" s="27"/>
+      <c r="Y82" s="26"/>
+      <c r="Z82" s="26"/>
+      <c r="AA82" s="26"/>
+      <c r="AB82" s="26"/>
+      <c r="AC82" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD82" s="26"/>
+      <c r="AE82" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF82" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AG82" s="27"/>
-    </row>
-    <row r="83" spans="1:33" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="27">
+      <c r="AG82" s="26"/>
+    </row>
+    <row r="83" spans="1:33" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="26">
         <v>2</v>
       </c>
-      <c r="B83" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C83" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D83" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="E83" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
-      <c r="K83" s="28"/>
-      <c r="L83" s="28"/>
-      <c r="M83" s="28"/>
-      <c r="N83" s="28"/>
-      <c r="O83" s="28"/>
-      <c r="P83" s="29"/>
-      <c r="Q83" s="29"/>
-      <c r="R83" s="27"/>
-      <c r="S83" s="30">
+      <c r="B83" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D83" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="E83" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="27"/>
+      <c r="K83" s="27"/>
+      <c r="L83" s="27"/>
+      <c r="M83" s="27"/>
+      <c r="N83" s="27"/>
+      <c r="O83" s="27"/>
+      <c r="P83" s="28"/>
+      <c r="Q83" s="28"/>
+      <c r="R83" s="26"/>
+      <c r="S83" s="29">
         <v>6.6</v>
       </c>
-      <c r="T83" s="30">
+      <c r="T83" s="29">
         <v>6.55</v>
       </c>
-      <c r="U83" s="30">
-        <v>0</v>
-      </c>
-      <c r="V83" s="30">
-        <v>0</v>
-      </c>
-      <c r="W83" s="30"/>
-      <c r="X83" s="28"/>
-      <c r="Y83" s="27"/>
-      <c r="Z83" s="27"/>
-      <c r="AA83" s="27"/>
-      <c r="AB83" s="27"/>
-      <c r="AC83" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD83" s="27"/>
-      <c r="AE83" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF83" s="27" t="s">
+      <c r="U83" s="29">
+        <v>0</v>
+      </c>
+      <c r="V83" s="29">
+        <v>0</v>
+      </c>
+      <c r="W83" s="29"/>
+      <c r="X83" s="27"/>
+      <c r="Y83" s="26"/>
+      <c r="Z83" s="26"/>
+      <c r="AA83" s="26"/>
+      <c r="AB83" s="26"/>
+      <c r="AC83" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD83" s="26"/>
+      <c r="AE83" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF83" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AG83" s="27"/>
+      <c r="AG83" s="26"/>
     </row>
     <row r="84" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="23">
@@ -7158,13 +7149,13 @@
         <v>0</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F84" s="17"/>
       <c r="G84" s="17"/>
@@ -7198,11 +7189,11 @@
       <c r="AA84" s="19"/>
       <c r="AB84" s="23"/>
       <c r="AC84" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AD84" s="19"/>
       <c r="AE84" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF84" s="19" t="s">
         <v>18</v>
@@ -7217,13 +7208,13 @@
         <v>0</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E85" s="17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F85" s="17"/>
       <c r="G85" s="17"/>
@@ -7257,134 +7248,134 @@
       <c r="AA85" s="19"/>
       <c r="AB85" s="23"/>
       <c r="AC85" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AD85" s="19"/>
       <c r="AE85" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF85" s="19" t="s">
         <v>18</v>
       </c>
       <c r="AG85" s="19"/>
     </row>
-    <row r="86" spans="1:33" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="27">
+    <row r="86" spans="1:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="26">
         <v>2</v>
       </c>
-      <c r="B86" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C86" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="D86" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="E86" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="28"/>
-      <c r="K86" s="28"/>
-      <c r="L86" s="28"/>
-      <c r="M86" s="28"/>
-      <c r="N86" s="28"/>
-      <c r="O86" s="28"/>
-      <c r="P86" s="29"/>
-      <c r="Q86" s="29"/>
-      <c r="R86" s="27"/>
-      <c r="S86" s="30">
+      <c r="B86" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D86" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="E86" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="27"/>
+      <c r="J86" s="27"/>
+      <c r="K86" s="27"/>
+      <c r="L86" s="27"/>
+      <c r="M86" s="27"/>
+      <c r="N86" s="27"/>
+      <c r="O86" s="27"/>
+      <c r="P86" s="28"/>
+      <c r="Q86" s="28"/>
+      <c r="R86" s="26"/>
+      <c r="S86" s="29">
         <v>7.75</v>
       </c>
-      <c r="T86" s="30">
+      <c r="T86" s="29">
         <v>5.3330000000000002</v>
       </c>
-      <c r="U86" s="30">
-        <v>0</v>
-      </c>
-      <c r="V86" s="30">
-        <v>0</v>
-      </c>
-      <c r="W86" s="30"/>
-      <c r="X86" s="28"/>
-      <c r="Y86" s="27"/>
-      <c r="Z86" s="27"/>
-      <c r="AA86" s="27"/>
-      <c r="AB86" s="27"/>
-      <c r="AC86" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD86" s="27"/>
-      <c r="AE86" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF86" s="27" t="s">
+      <c r="U86" s="29">
+        <v>0</v>
+      </c>
+      <c r="V86" s="29">
+        <v>0</v>
+      </c>
+      <c r="W86" s="29"/>
+      <c r="X86" s="27"/>
+      <c r="Y86" s="26"/>
+      <c r="Z86" s="26"/>
+      <c r="AA86" s="26"/>
+      <c r="AB86" s="26"/>
+      <c r="AC86" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD86" s="26"/>
+      <c r="AE86" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF86" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AG86" s="27"/>
-    </row>
-    <row r="87" spans="1:33" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="27">
+      <c r="AG86" s="26"/>
+    </row>
+    <row r="87" spans="1:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="26">
         <v>2</v>
       </c>
-      <c r="B87" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C87" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="D87" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="E87" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="28"/>
-      <c r="J87" s="28"/>
-      <c r="K87" s="28"/>
-      <c r="L87" s="28"/>
-      <c r="M87" s="28"/>
-      <c r="N87" s="28"/>
-      <c r="O87" s="28"/>
-      <c r="P87" s="29"/>
-      <c r="Q87" s="29"/>
-      <c r="R87" s="27"/>
-      <c r="S87" s="30">
+      <c r="B87" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D87" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="E87" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="27"/>
+      <c r="K87" s="27"/>
+      <c r="L87" s="27"/>
+      <c r="M87" s="27"/>
+      <c r="N87" s="27"/>
+      <c r="O87" s="27"/>
+      <c r="P87" s="28"/>
+      <c r="Q87" s="28"/>
+      <c r="R87" s="26"/>
+      <c r="S87" s="29">
         <v>6.6</v>
       </c>
-      <c r="T87" s="30">
+      <c r="T87" s="29">
         <v>5.3330000000000002</v>
       </c>
-      <c r="U87" s="30">
-        <v>0</v>
-      </c>
-      <c r="V87" s="30">
-        <v>0</v>
-      </c>
-      <c r="W87" s="30"/>
-      <c r="X87" s="28"/>
-      <c r="Y87" s="27"/>
-      <c r="Z87" s="27"/>
-      <c r="AA87" s="27"/>
-      <c r="AB87" s="27"/>
-      <c r="AC87" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD87" s="27"/>
-      <c r="AE87" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF87" s="27" t="s">
+      <c r="U87" s="29">
+        <v>0</v>
+      </c>
+      <c r="V87" s="29">
+        <v>0</v>
+      </c>
+      <c r="W87" s="29"/>
+      <c r="X87" s="27"/>
+      <c r="Y87" s="26"/>
+      <c r="Z87" s="26"/>
+      <c r="AA87" s="26"/>
+      <c r="AB87" s="26"/>
+      <c r="AC87" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD87" s="26"/>
+      <c r="AE87" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF87" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AG87" s="27"/>
+      <c r="AG87" s="26"/>
     </row>
     <row r="88" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="23">
@@ -7394,13 +7385,13 @@
         <v>0</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E88" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F88" s="17"/>
       <c r="G88" s="17"/>
@@ -7434,11 +7425,11 @@
       <c r="AA88" s="19"/>
       <c r="AB88" s="23"/>
       <c r="AC88" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AD88" s="19"/>
       <c r="AE88" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF88" s="19" t="s">
         <v>18</v>
@@ -7453,13 +7444,13 @@
         <v>0</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E89" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F89" s="17"/>
       <c r="G89" s="17"/>
@@ -7493,134 +7484,134 @@
       <c r="AA89" s="19"/>
       <c r="AB89" s="23"/>
       <c r="AC89" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AD89" s="19"/>
       <c r="AE89" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF89" s="19" t="s">
         <v>18</v>
       </c>
       <c r="AG89" s="19"/>
     </row>
-    <row r="90" spans="1:33" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="27">
+    <row r="90" spans="1:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="26">
         <v>2</v>
       </c>
-      <c r="B90" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C90" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="D90" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="E90" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="F90" s="28"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="28"/>
-      <c r="J90" s="28"/>
-      <c r="K90" s="28"/>
-      <c r="L90" s="28"/>
-      <c r="M90" s="28"/>
-      <c r="N90" s="28"/>
-      <c r="O90" s="28"/>
-      <c r="P90" s="29"/>
-      <c r="Q90" s="29"/>
-      <c r="R90" s="27"/>
-      <c r="S90" s="30">
+      <c r="B90" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="D90" s="27" t="s">
+        <v>296</v>
+      </c>
+      <c r="E90" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="27"/>
+      <c r="J90" s="27"/>
+      <c r="K90" s="27"/>
+      <c r="L90" s="27"/>
+      <c r="M90" s="27"/>
+      <c r="N90" s="27"/>
+      <c r="O90" s="27"/>
+      <c r="P90" s="28"/>
+      <c r="Q90" s="28"/>
+      <c r="R90" s="26"/>
+      <c r="S90" s="29">
         <v>7.75</v>
       </c>
-      <c r="T90" s="30">
+      <c r="T90" s="29">
         <v>4.0830000000000002</v>
       </c>
-      <c r="U90" s="30">
-        <v>0</v>
-      </c>
-      <c r="V90" s="30">
-        <v>0</v>
-      </c>
-      <c r="W90" s="30"/>
-      <c r="X90" s="28"/>
-      <c r="Y90" s="27"/>
-      <c r="Z90" s="27"/>
-      <c r="AA90" s="27"/>
-      <c r="AB90" s="27"/>
-      <c r="AC90" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD90" s="27"/>
-      <c r="AE90" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF90" s="27" t="s">
+      <c r="U90" s="29">
+        <v>0</v>
+      </c>
+      <c r="V90" s="29">
+        <v>0</v>
+      </c>
+      <c r="W90" s="29"/>
+      <c r="X90" s="27"/>
+      <c r="Y90" s="26"/>
+      <c r="Z90" s="26"/>
+      <c r="AA90" s="26"/>
+      <c r="AB90" s="26"/>
+      <c r="AC90" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD90" s="26"/>
+      <c r="AE90" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF90" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AG90" s="27"/>
-    </row>
-    <row r="91" spans="1:33" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="27">
+      <c r="AG90" s="26"/>
+    </row>
+    <row r="91" spans="1:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="26">
         <v>2</v>
       </c>
-      <c r="B91" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C91" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="D91" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="E91" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="28"/>
-      <c r="J91" s="28"/>
-      <c r="K91" s="28"/>
-      <c r="L91" s="28"/>
-      <c r="M91" s="28"/>
-      <c r="N91" s="28"/>
-      <c r="O91" s="28"/>
-      <c r="P91" s="29"/>
-      <c r="Q91" s="29"/>
-      <c r="R91" s="27"/>
-      <c r="S91" s="30">
+      <c r="B91" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="D91" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="E91" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="F91" s="27"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="27"/>
+      <c r="K91" s="27"/>
+      <c r="L91" s="27"/>
+      <c r="M91" s="27"/>
+      <c r="N91" s="27"/>
+      <c r="O91" s="27"/>
+      <c r="P91" s="28"/>
+      <c r="Q91" s="28"/>
+      <c r="R91" s="26"/>
+      <c r="S91" s="29">
         <v>6.6</v>
       </c>
-      <c r="T91" s="30">
+      <c r="T91" s="29">
         <v>4.0830000000000002</v>
       </c>
-      <c r="U91" s="30">
-        <v>0</v>
-      </c>
-      <c r="V91" s="30">
-        <v>0</v>
-      </c>
-      <c r="W91" s="30"/>
-      <c r="X91" s="28"/>
-      <c r="Y91" s="27"/>
-      <c r="Z91" s="27"/>
-      <c r="AA91" s="27"/>
-      <c r="AB91" s="27"/>
-      <c r="AC91" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD91" s="27"/>
-      <c r="AE91" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF91" s="27" t="s">
+      <c r="U91" s="29">
+        <v>0</v>
+      </c>
+      <c r="V91" s="29">
+        <v>0</v>
+      </c>
+      <c r="W91" s="29"/>
+      <c r="X91" s="27"/>
+      <c r="Y91" s="26"/>
+      <c r="Z91" s="26"/>
+      <c r="AA91" s="26"/>
+      <c r="AB91" s="26"/>
+      <c r="AC91" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD91" s="26"/>
+      <c r="AE91" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF91" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AG91" s="27"/>
+      <c r="AG91" s="26"/>
     </row>
     <row r="92" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="23">
@@ -7630,13 +7621,13 @@
         <v>0</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E92" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F92" s="17"/>
       <c r="G92" s="17"/>
@@ -7670,11 +7661,11 @@
       <c r="AA92" s="19"/>
       <c r="AB92" s="23"/>
       <c r="AC92" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AD92" s="19"/>
       <c r="AE92" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AF92" s="19" t="s">
         <v>18</v>
@@ -7691,13 +7682,13 @@
         <v>0</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E93" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F93" s="17"/>
       <c r="G93" s="17"/>
@@ -7731,11 +7722,11 @@
       <c r="AA93" s="19"/>
       <c r="AB93" s="23"/>
       <c r="AC93" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AD93" s="19"/>
       <c r="AE93" s="19" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AF93" s="19" t="s">
         <v>18</v>
@@ -7752,13 +7743,13 @@
         <v>0</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D94" s="21" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E94" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F94" s="21"/>
       <c r="G94" s="21"/>
@@ -7799,123 +7790,123 @@
       <c r="AF94" s="23"/>
       <c r="AG94" s="23"/>
     </row>
-    <row r="95" spans="1:33" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="27">
+    <row r="95" spans="1:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="26">
         <v>2</v>
       </c>
-      <c r="B95" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C95" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D95" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="E95" s="28" t="s">
+      <c r="B95" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="D95" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="E95" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="28"/>
-      <c r="K95" s="28"/>
-      <c r="L95" s="28"/>
-      <c r="M95" s="28"/>
-      <c r="N95" s="28"/>
-      <c r="O95" s="28"/>
-      <c r="P95" s="29"/>
-      <c r="Q95" s="29"/>
-      <c r="R95" s="27"/>
-      <c r="S95" s="30">
+      <c r="F95" s="27"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="27"/>
+      <c r="I95" s="27"/>
+      <c r="J95" s="27"/>
+      <c r="K95" s="27"/>
+      <c r="L95" s="27"/>
+      <c r="M95" s="27"/>
+      <c r="N95" s="27"/>
+      <c r="O95" s="27"/>
+      <c r="P95" s="28"/>
+      <c r="Q95" s="28"/>
+      <c r="R95" s="26"/>
+      <c r="S95" s="29">
         <v>7.75</v>
       </c>
-      <c r="T95" s="30">
+      <c r="T95" s="29">
         <v>2.75</v>
       </c>
-      <c r="U95" s="30">
-        <v>0</v>
-      </c>
-      <c r="V95" s="30">
-        <v>0</v>
-      </c>
-      <c r="W95" s="30"/>
-      <c r="X95" s="28"/>
-      <c r="Y95" s="27"/>
-      <c r="Z95" s="27"/>
-      <c r="AA95" s="27"/>
-      <c r="AB95" s="27"/>
-      <c r="AC95" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD95" s="27"/>
-      <c r="AE95" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF95" s="27" t="s">
+      <c r="U95" s="29">
+        <v>0</v>
+      </c>
+      <c r="V95" s="29">
+        <v>0</v>
+      </c>
+      <c r="W95" s="29"/>
+      <c r="X95" s="27"/>
+      <c r="Y95" s="26"/>
+      <c r="Z95" s="26"/>
+      <c r="AA95" s="26"/>
+      <c r="AB95" s="26"/>
+      <c r="AC95" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD95" s="26"/>
+      <c r="AE95" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF95" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AG95" s="27"/>
-    </row>
-    <row r="96" spans="1:33" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="27">
+      <c r="AG95" s="26"/>
+    </row>
+    <row r="96" spans="1:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="26">
         <v>2</v>
       </c>
-      <c r="B96" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C96" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="D96" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="E96" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="28"/>
-      <c r="J96" s="28"/>
-      <c r="K96" s="28"/>
-      <c r="L96" s="28"/>
-      <c r="M96" s="28"/>
-      <c r="N96" s="28"/>
-      <c r="O96" s="28"/>
-      <c r="P96" s="29"/>
-      <c r="Q96" s="29"/>
-      <c r="R96" s="27"/>
-      <c r="S96" s="30">
+      <c r="B96" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D96" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="E96" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="F96" s="27"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="27"/>
+      <c r="I96" s="27"/>
+      <c r="J96" s="27"/>
+      <c r="K96" s="27"/>
+      <c r="L96" s="27"/>
+      <c r="M96" s="27"/>
+      <c r="N96" s="27"/>
+      <c r="O96" s="27"/>
+      <c r="P96" s="28"/>
+      <c r="Q96" s="28"/>
+      <c r="R96" s="26"/>
+      <c r="S96" s="29">
         <v>6.6</v>
       </c>
-      <c r="T96" s="30">
+      <c r="T96" s="29">
         <v>2.75</v>
       </c>
-      <c r="U96" s="30">
-        <v>0</v>
-      </c>
-      <c r="V96" s="30">
-        <v>0</v>
-      </c>
-      <c r="W96" s="30"/>
-      <c r="X96" s="28"/>
-      <c r="Y96" s="27"/>
-      <c r="Z96" s="27"/>
-      <c r="AA96" s="27"/>
-      <c r="AB96" s="27"/>
-      <c r="AC96" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD96" s="27"/>
-      <c r="AE96" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF96" s="27" t="s">
+      <c r="U96" s="29">
+        <v>0</v>
+      </c>
+      <c r="V96" s="29">
+        <v>0</v>
+      </c>
+      <c r="W96" s="29"/>
+      <c r="X96" s="27"/>
+      <c r="Y96" s="26"/>
+      <c r="Z96" s="26"/>
+      <c r="AA96" s="26"/>
+      <c r="AB96" s="26"/>
+      <c r="AC96" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD96" s="26"/>
+      <c r="AE96" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF96" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AG96" s="27"/>
+      <c r="AG96" s="26"/>
     </row>
     <row r="97" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="23">
@@ -7925,10 +7916,10 @@
         <v>0</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E97" s="17" t="s">
         <v>23</v>
@@ -7965,11 +7956,11 @@
       <c r="AA97" s="19"/>
       <c r="AB97" s="23"/>
       <c r="AC97" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AD97" s="19"/>
       <c r="AE97" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF97" s="19" t="s">
         <v>18</v>
@@ -7984,13 +7975,13 @@
         <v>0</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E98" s="17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F98" s="17"/>
       <c r="G98" s="17"/>
@@ -8024,79 +8015,79 @@
       <c r="AA98" s="19"/>
       <c r="AB98" s="23"/>
       <c r="AC98" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AD98" s="19"/>
       <c r="AE98" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF98" s="19" t="s">
         <v>18</v>
       </c>
       <c r="AG98" s="19"/>
     </row>
-    <row r="99" spans="1:33" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="27">
+    <row r="99" spans="1:33" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="26">
         <v>2</v>
       </c>
-      <c r="B99" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C99" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="D99" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="E99" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="F99" s="28"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="28"/>
-      <c r="I99" s="28"/>
-      <c r="J99" s="28"/>
-      <c r="K99" s="28"/>
-      <c r="L99" s="28"/>
-      <c r="M99" s="28"/>
-      <c r="N99" s="28"/>
-      <c r="O99" s="28"/>
-      <c r="P99" s="29"/>
-      <c r="Q99" s="29"/>
-      <c r="R99" s="27"/>
-      <c r="S99" s="30">
+      <c r="B99" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D99" s="27" t="s">
+        <v>294</v>
+      </c>
+      <c r="E99" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="F99" s="27"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="27"/>
+      <c r="I99" s="27"/>
+      <c r="J99" s="27"/>
+      <c r="K99" s="27"/>
+      <c r="L99" s="27"/>
+      <c r="M99" s="27"/>
+      <c r="N99" s="27"/>
+      <c r="O99" s="27"/>
+      <c r="P99" s="28"/>
+      <c r="Q99" s="28"/>
+      <c r="R99" s="26"/>
+      <c r="S99" s="29">
         <v>5.3</v>
       </c>
-      <c r="T99" s="30">
+      <c r="T99" s="29">
         <v>4.5030000000000001</v>
       </c>
-      <c r="U99" s="30">
-        <v>0</v>
-      </c>
-      <c r="V99" s="30">
-        <v>0</v>
-      </c>
-      <c r="W99" s="30"/>
-      <c r="X99" s="28"/>
-      <c r="Y99" s="27"/>
-      <c r="Z99" s="27"/>
-      <c r="AA99" s="27"/>
-      <c r="AB99" s="27"/>
-      <c r="AC99" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD99" s="27"/>
-      <c r="AE99" s="27" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF99" s="27" t="s">
+      <c r="U99" s="29">
+        <v>0</v>
+      </c>
+      <c r="V99" s="29">
+        <v>0</v>
+      </c>
+      <c r="W99" s="29"/>
+      <c r="X99" s="27"/>
+      <c r="Y99" s="26"/>
+      <c r="Z99" s="26"/>
+      <c r="AA99" s="26"/>
+      <c r="AB99" s="26"/>
+      <c r="AC99" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD99" s="26"/>
+      <c r="AE99" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF99" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="AG99" s="27"/>
+      <c r="AG99" s="26"/>
     </row>
     <row r="100" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B100" s="10"/>
       <c r="C100" s="10"/>
@@ -8139,13 +8130,13 @@
         <v>0</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E101" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F101" s="17"/>
       <c r="G101" s="17"/>
@@ -8179,11 +8170,11 @@
       <c r="AA101" s="19"/>
       <c r="AB101" s="23"/>
       <c r="AC101" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AD101" s="19"/>
       <c r="AE101" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF101" s="19" t="s">
         <v>18</v>
@@ -8198,13 +8189,13 @@
         <v>0</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E102" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F102" s="17"/>
       <c r="G102" s="17"/>
@@ -8238,11 +8229,11 @@
       <c r="AA102" s="19"/>
       <c r="AB102" s="23"/>
       <c r="AC102" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AD102" s="19"/>
       <c r="AE102" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF102" s="19" t="s">
         <v>18</v>
@@ -8251,7 +8242,7 @@
     </row>
     <row r="103" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B103" s="10"/>
       <c r="C103" s="10"/>
@@ -8294,16 +8285,16 @@
         <v>0</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D104" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="E104" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="F104" s="32"/>
-      <c r="G104" s="32">
+        <v>274</v>
+      </c>
+      <c r="E104" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="F104" s="31"/>
+      <c r="G104" s="31">
         <v>10</v>
       </c>
       <c r="H104" s="21"/>
@@ -8336,11 +8327,11 @@
       <c r="AA104" s="19"/>
       <c r="AB104" s="23"/>
       <c r="AC104" s="19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AD104" s="23"/>
       <c r="AE104" s="19" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF104" s="19" t="s">
         <v>17</v>
@@ -8351,7 +8342,7 @@
     </row>
     <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
@@ -8387,175 +8378,175 @@
       <c r="AG105" s="12"/>
     </row>
     <row r="106" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="39">
+      <c r="A106" s="38">
         <v>1</v>
       </c>
-      <c r="B106" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C106" s="40" t="s">
+      <c r="B106" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" s="39" t="s">
+        <v>246</v>
+      </c>
+      <c r="D106" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="E106" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="F106" s="40"/>
+      <c r="G106" s="40">
+        <v>8</v>
+      </c>
+      <c r="H106" s="39"/>
+      <c r="I106" s="39"/>
+      <c r="J106" s="39"/>
+      <c r="K106" s="39"/>
+      <c r="L106" s="39"/>
+      <c r="M106" s="39"/>
+      <c r="N106" s="39"/>
+      <c r="O106" s="39"/>
+      <c r="P106" s="41"/>
+      <c r="Q106" s="41"/>
+      <c r="R106" s="38"/>
+      <c r="S106" s="42">
+        <v>4.1749999999999998</v>
+      </c>
+      <c r="T106" s="42">
+        <v>5</v>
+      </c>
+      <c r="U106" s="42">
+        <v>0</v>
+      </c>
+      <c r="V106" s="42">
+        <v>0</v>
+      </c>
+      <c r="W106" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="X106" s="39"/>
+      <c r="Y106" s="38"/>
+      <c r="Z106" s="38"/>
+      <c r="AA106" s="38"/>
+      <c r="AB106" s="38"/>
+      <c r="AC106" s="38"/>
+      <c r="AD106" s="38"/>
+      <c r="AE106" s="38"/>
+      <c r="AF106" s="38"/>
+      <c r="AG106" s="38"/>
+    </row>
+    <row r="107" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="38">
+        <v>1</v>
+      </c>
+      <c r="B107" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" s="39" t="s">
+        <v>247</v>
+      </c>
+      <c r="D107" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="E107" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="F107" s="40"/>
+      <c r="G107" s="40">
+        <v>8</v>
+      </c>
+      <c r="H107" s="39"/>
+      <c r="I107" s="39"/>
+      <c r="J107" s="39"/>
+      <c r="K107" s="39"/>
+      <c r="L107" s="39"/>
+      <c r="M107" s="39"/>
+      <c r="N107" s="39"/>
+      <c r="O107" s="39"/>
+      <c r="P107" s="41"/>
+      <c r="Q107" s="41"/>
+      <c r="R107" s="38"/>
+      <c r="S107" s="42">
+        <v>5.1749999999999998</v>
+      </c>
+      <c r="T107" s="42">
+        <v>5</v>
+      </c>
+      <c r="U107" s="42">
+        <v>0</v>
+      </c>
+      <c r="V107" s="42">
+        <v>0</v>
+      </c>
+      <c r="W107" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="X107" s="39"/>
+      <c r="Y107" s="38"/>
+      <c r="Z107" s="38"/>
+      <c r="AA107" s="38"/>
+      <c r="AB107" s="38"/>
+      <c r="AC107" s="38"/>
+      <c r="AD107" s="38"/>
+      <c r="AE107" s="38"/>
+      <c r="AF107" s="38"/>
+      <c r="AG107" s="38"/>
+    </row>
+    <row r="108" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="38">
+        <v>1</v>
+      </c>
+      <c r="B108" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="D106" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="E106" s="41" t="s">
+      <c r="D108" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="E108" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="F106" s="41"/>
-      <c r="G106" s="41">
+      <c r="F108" s="40"/>
+      <c r="G108" s="40">
         <v>8</v>
       </c>
-      <c r="H106" s="40"/>
-      <c r="I106" s="40"/>
-      <c r="J106" s="40"/>
-      <c r="K106" s="40"/>
-      <c r="L106" s="40"/>
-      <c r="M106" s="40"/>
-      <c r="N106" s="40"/>
-      <c r="O106" s="40"/>
-      <c r="P106" s="42"/>
-      <c r="Q106" s="42"/>
-      <c r="R106" s="39"/>
-      <c r="S106" s="43">
-        <v>4.1749999999999998</v>
-      </c>
-      <c r="T106" s="43">
+      <c r="H108" s="39"/>
+      <c r="I108" s="39"/>
+      <c r="J108" s="39"/>
+      <c r="K108" s="39"/>
+      <c r="L108" s="39"/>
+      <c r="M108" s="39"/>
+      <c r="N108" s="39"/>
+      <c r="O108" s="39"/>
+      <c r="P108" s="41"/>
+      <c r="Q108" s="41"/>
+      <c r="R108" s="38"/>
+      <c r="S108" s="42">
+        <v>6.1749999999999998</v>
+      </c>
+      <c r="T108" s="42">
         <v>5</v>
       </c>
-      <c r="U106" s="43">
-        <v>0</v>
-      </c>
-      <c r="V106" s="43">
-        <v>0</v>
-      </c>
-      <c r="W106" s="43" t="s">
+      <c r="U108" s="42">
+        <v>1</v>
+      </c>
+      <c r="V108" s="42">
+        <v>0</v>
+      </c>
+      <c r="W108" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="X106" s="40"/>
-      <c r="Y106" s="39"/>
-      <c r="Z106" s="39"/>
-      <c r="AA106" s="39"/>
-      <c r="AB106" s="39"/>
-      <c r="AC106" s="39"/>
-      <c r="AD106" s="39"/>
-      <c r="AE106" s="39"/>
-      <c r="AF106" s="39"/>
-      <c r="AG106" s="39"/>
-    </row>
-    <row r="107" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="39">
-        <v>1</v>
-      </c>
-      <c r="B107" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C107" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="D107" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="E107" s="41" t="s">
-        <v>228</v>
-      </c>
-      <c r="F107" s="41"/>
-      <c r="G107" s="41">
-        <v>8</v>
-      </c>
-      <c r="H107" s="40"/>
-      <c r="I107" s="40"/>
-      <c r="J107" s="40"/>
-      <c r="K107" s="40"/>
-      <c r="L107" s="40"/>
-      <c r="M107" s="40"/>
-      <c r="N107" s="40"/>
-      <c r="O107" s="40"/>
-      <c r="P107" s="42"/>
-      <c r="Q107" s="42"/>
-      <c r="R107" s="39"/>
-      <c r="S107" s="43">
-        <v>5.1749999999999998</v>
-      </c>
-      <c r="T107" s="43">
-        <v>5</v>
-      </c>
-      <c r="U107" s="43">
-        <v>0</v>
-      </c>
-      <c r="V107" s="43">
-        <v>0</v>
-      </c>
-      <c r="W107" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="X107" s="40"/>
-      <c r="Y107" s="39"/>
-      <c r="Z107" s="39"/>
-      <c r="AA107" s="39"/>
-      <c r="AB107" s="39"/>
-      <c r="AC107" s="39"/>
-      <c r="AD107" s="39"/>
-      <c r="AE107" s="39"/>
-      <c r="AF107" s="39"/>
-      <c r="AG107" s="39"/>
-    </row>
-    <row r="108" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="39">
-        <v>1</v>
-      </c>
-      <c r="B108" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C108" s="40" t="s">
-        <v>250</v>
-      </c>
-      <c r="D108" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="E108" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="F108" s="41"/>
-      <c r="G108" s="41">
-        <v>8</v>
-      </c>
-      <c r="H108" s="40"/>
-      <c r="I108" s="40"/>
-      <c r="J108" s="40"/>
-      <c r="K108" s="40"/>
-      <c r="L108" s="40"/>
-      <c r="M108" s="40"/>
-      <c r="N108" s="40"/>
-      <c r="O108" s="40"/>
-      <c r="P108" s="42"/>
-      <c r="Q108" s="42"/>
-      <c r="R108" s="39"/>
-      <c r="S108" s="43">
-        <v>6.1749999999999998</v>
-      </c>
-      <c r="T108" s="43">
-        <v>5</v>
-      </c>
-      <c r="U108" s="43">
-        <v>1</v>
-      </c>
-      <c r="V108" s="43">
-        <v>0</v>
-      </c>
-      <c r="W108" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="X108" s="40"/>
-      <c r="Y108" s="39"/>
-      <c r="Z108" s="39"/>
-      <c r="AA108" s="39"/>
-      <c r="AB108" s="39"/>
-      <c r="AC108" s="39"/>
-      <c r="AD108" s="39"/>
-      <c r="AE108" s="39"/>
-      <c r="AF108" s="39"/>
-      <c r="AG108" s="39"/>
+      <c r="X108" s="39"/>
+      <c r="Y108" s="38"/>
+      <c r="Z108" s="38"/>
+      <c r="AA108" s="38"/>
+      <c r="AB108" s="38"/>
+      <c r="AC108" s="38"/>
+      <c r="AD108" s="38"/>
+      <c r="AE108" s="38"/>
+      <c r="AF108" s="38"/>
+      <c r="AG108" s="38"/>
     </row>
     <row r="109" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
@@ -8565,16 +8556,16 @@
         <v>0</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D109" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="E109" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="F109" s="32"/>
-      <c r="G109" s="32">
+        <v>300</v>
+      </c>
+      <c r="E109" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="F109" s="31"/>
+      <c r="G109" s="31">
         <v>8</v>
       </c>
       <c r="H109" s="21"/>
@@ -8620,16 +8611,16 @@
         <v>0</v>
       </c>
       <c r="C110" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="D110" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="E110" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="D110" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="E110" s="32" t="s">
-        <v>254</v>
-      </c>
-      <c r="F110" s="32"/>
-      <c r="G110" s="32">
+      <c r="F110" s="31"/>
+      <c r="G110" s="31">
         <v>8</v>
       </c>
       <c r="H110" s="21"/>
@@ -8675,16 +8666,16 @@
         <v>0</v>
       </c>
       <c r="C111" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="D111" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="E111" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="D111" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="E111" s="32" t="s">
-        <v>255</v>
-      </c>
-      <c r="F111" s="32"/>
-      <c r="G111" s="32">
+      <c r="F111" s="31"/>
+      <c r="G111" s="31">
         <v>8</v>
       </c>
       <c r="H111" s="21"/>
@@ -8723,175 +8714,175 @@
       <c r="AG111" s="23"/>
     </row>
     <row r="112" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="39">
+      <c r="A112" s="38">
         <v>1</v>
       </c>
-      <c r="B112" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C112" s="40" t="s">
+      <c r="B112" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="D112" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="E112" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="F112" s="40"/>
+      <c r="G112" s="40">
+        <v>8</v>
+      </c>
+      <c r="H112" s="39"/>
+      <c r="I112" s="39"/>
+      <c r="J112" s="39"/>
+      <c r="K112" s="39"/>
+      <c r="L112" s="39"/>
+      <c r="M112" s="39"/>
+      <c r="N112" s="39"/>
+      <c r="O112" s="39"/>
+      <c r="P112" s="41"/>
+      <c r="Q112" s="41"/>
+      <c r="R112" s="38"/>
+      <c r="S112" s="42">
+        <v>4.1749999999999998</v>
+      </c>
+      <c r="T112" s="42">
+        <v>4.5</v>
+      </c>
+      <c r="U112" s="42">
+        <v>0</v>
+      </c>
+      <c r="V112" s="42">
+        <v>0</v>
+      </c>
+      <c r="W112" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="X112" s="39"/>
+      <c r="Y112" s="38"/>
+      <c r="Z112" s="38"/>
+      <c r="AA112" s="38"/>
+      <c r="AB112" s="38"/>
+      <c r="AC112" s="38"/>
+      <c r="AD112" s="38"/>
+      <c r="AE112" s="38"/>
+      <c r="AF112" s="38"/>
+      <c r="AG112" s="38"/>
+    </row>
+    <row r="113" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="38">
+        <v>1</v>
+      </c>
+      <c r="B113" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="D113" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="E113" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="F113" s="40"/>
+      <c r="G113" s="40">
+        <v>8</v>
+      </c>
+      <c r="H113" s="39"/>
+      <c r="I113" s="39"/>
+      <c r="J113" s="39"/>
+      <c r="K113" s="39"/>
+      <c r="L113" s="39"/>
+      <c r="M113" s="39"/>
+      <c r="N113" s="39"/>
+      <c r="O113" s="39"/>
+      <c r="P113" s="41"/>
+      <c r="Q113" s="41"/>
+      <c r="R113" s="38"/>
+      <c r="S113" s="42">
+        <v>5.1749999999999998</v>
+      </c>
+      <c r="T113" s="42">
+        <v>4.5</v>
+      </c>
+      <c r="U113" s="42">
+        <v>0</v>
+      </c>
+      <c r="V113" s="42">
+        <v>0</v>
+      </c>
+      <c r="W113" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="X113" s="39"/>
+      <c r="Y113" s="38"/>
+      <c r="Z113" s="38"/>
+      <c r="AA113" s="38"/>
+      <c r="AB113" s="38"/>
+      <c r="AC113" s="38"/>
+      <c r="AD113" s="38"/>
+      <c r="AE113" s="38"/>
+      <c r="AF113" s="38"/>
+      <c r="AG113" s="38"/>
+    </row>
+    <row r="114" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="38">
+        <v>1</v>
+      </c>
+      <c r="B114" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" s="39" t="s">
         <v>256</v>
       </c>
-      <c r="D112" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="E112" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="F112" s="41"/>
-      <c r="G112" s="41">
+      <c r="D114" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="E114" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="F114" s="40"/>
+      <c r="G114" s="40">
         <v>8</v>
       </c>
-      <c r="H112" s="40"/>
-      <c r="I112" s="40"/>
-      <c r="J112" s="40"/>
-      <c r="K112" s="40"/>
-      <c r="L112" s="40"/>
-      <c r="M112" s="40"/>
-      <c r="N112" s="40"/>
-      <c r="O112" s="40"/>
-      <c r="P112" s="42"/>
-      <c r="Q112" s="42"/>
-      <c r="R112" s="39"/>
-      <c r="S112" s="43">
-        <v>4.1749999999999998</v>
-      </c>
-      <c r="T112" s="43">
+      <c r="H114" s="39"/>
+      <c r="I114" s="39"/>
+      <c r="J114" s="39"/>
+      <c r="K114" s="39"/>
+      <c r="L114" s="39"/>
+      <c r="M114" s="39"/>
+      <c r="N114" s="39"/>
+      <c r="O114" s="39"/>
+      <c r="P114" s="41"/>
+      <c r="Q114" s="41"/>
+      <c r="R114" s="38"/>
+      <c r="S114" s="42">
+        <v>6.1749999999999998</v>
+      </c>
+      <c r="T114" s="42">
         <v>4.5</v>
       </c>
-      <c r="U112" s="43">
-        <v>0</v>
-      </c>
-      <c r="V112" s="43">
-        <v>0</v>
-      </c>
-      <c r="W112" s="43" t="s">
-        <v>260</v>
-      </c>
-      <c r="X112" s="40"/>
-      <c r="Y112" s="39"/>
-      <c r="Z112" s="39"/>
-      <c r="AA112" s="39"/>
-      <c r="AB112" s="39"/>
-      <c r="AC112" s="39"/>
-      <c r="AD112" s="39"/>
-      <c r="AE112" s="39"/>
-      <c r="AF112" s="39"/>
-      <c r="AG112" s="39"/>
-    </row>
-    <row r="113" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="39">
+      <c r="U114" s="42">
         <v>1</v>
       </c>
-      <c r="B113" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C113" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="D113" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="E113" s="41" t="s">
-        <v>230</v>
-      </c>
-      <c r="F113" s="41"/>
-      <c r="G113" s="41">
-        <v>8</v>
-      </c>
-      <c r="H113" s="40"/>
-      <c r="I113" s="40"/>
-      <c r="J113" s="40"/>
-      <c r="K113" s="40"/>
-      <c r="L113" s="40"/>
-      <c r="M113" s="40"/>
-      <c r="N113" s="40"/>
-      <c r="O113" s="40"/>
-      <c r="P113" s="42"/>
-      <c r="Q113" s="42"/>
-      <c r="R113" s="39"/>
-      <c r="S113" s="43">
-        <v>5.1749999999999998</v>
-      </c>
-      <c r="T113" s="43">
-        <v>4.5</v>
-      </c>
-      <c r="U113" s="43">
-        <v>0</v>
-      </c>
-      <c r="V113" s="43">
-        <v>0</v>
-      </c>
-      <c r="W113" s="43" t="s">
-        <v>260</v>
-      </c>
-      <c r="X113" s="40"/>
-      <c r="Y113" s="39"/>
-      <c r="Z113" s="39"/>
-      <c r="AA113" s="39"/>
-      <c r="AB113" s="39"/>
-      <c r="AC113" s="39"/>
-      <c r="AD113" s="39"/>
-      <c r="AE113" s="39"/>
-      <c r="AF113" s="39"/>
-      <c r="AG113" s="39"/>
-    </row>
-    <row r="114" spans="1:33" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="39">
-        <v>1</v>
-      </c>
-      <c r="B114" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C114" s="40" t="s">
+      <c r="V114" s="42">
+        <v>0</v>
+      </c>
+      <c r="W114" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="D114" s="40" t="s">
-        <v>302</v>
-      </c>
-      <c r="E114" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="F114" s="41"/>
-      <c r="G114" s="41">
-        <v>8</v>
-      </c>
-      <c r="H114" s="40"/>
-      <c r="I114" s="40"/>
-      <c r="J114" s="40"/>
-      <c r="K114" s="40"/>
-      <c r="L114" s="40"/>
-      <c r="M114" s="40"/>
-      <c r="N114" s="40"/>
-      <c r="O114" s="40"/>
-      <c r="P114" s="42"/>
-      <c r="Q114" s="42"/>
-      <c r="R114" s="39"/>
-      <c r="S114" s="43">
-        <v>6.1749999999999998</v>
-      </c>
-      <c r="T114" s="43">
-        <v>4.5</v>
-      </c>
-      <c r="U114" s="43">
-        <v>1</v>
-      </c>
-      <c r="V114" s="43">
-        <v>0</v>
-      </c>
-      <c r="W114" s="43" t="s">
-        <v>260</v>
-      </c>
-      <c r="X114" s="40"/>
-      <c r="Y114" s="39"/>
-      <c r="Z114" s="39"/>
-      <c r="AA114" s="39"/>
-      <c r="AB114" s="39"/>
-      <c r="AC114" s="39"/>
-      <c r="AD114" s="39"/>
-      <c r="AE114" s="39"/>
-      <c r="AF114" s="39"/>
-      <c r="AG114" s="39"/>
+      <c r="X114" s="39"/>
+      <c r="Y114" s="38"/>
+      <c r="Z114" s="38"/>
+      <c r="AA114" s="38"/>
+      <c r="AB114" s="38"/>
+      <c r="AC114" s="38"/>
+      <c r="AD114" s="38"/>
+      <c r="AE114" s="38"/>
+      <c r="AF114" s="38"/>
+      <c r="AG114" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8967,97 +8958,97 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="F4" s="56" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="C5" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="F4" s="57" t="s">
+      <c r="D5" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="I5" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="H5" s="38" t="s">
+      <c r="J5" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="K5" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="J5" s="38" t="s">
+      <c r="L5" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="M5" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="N5" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="M5" s="38" t="s">
+      <c r="O5" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="37" t="s">
         <v>223</v>
-      </c>
-      <c r="N5" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="O5" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="P5" s="38" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -9125,56 +9116,56 @@
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
-      <c r="F9" s="58" t="s">
-        <v>225</v>
-      </c>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="60"/>
-      <c r="P9" s="37">
+      <c r="F9" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="58"/>
+      <c r="L9" s="58"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="59"/>
+      <c r="P9" s="36">
         <f>SUM(P6:P8)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F10" s="64" t="s">
-        <v>245</v>
-      </c>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="62" t="s">
-        <v>246</v>
-      </c>
-      <c r="N10" s="62"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="35">
+      <c r="F10" s="63" t="s">
+        <v>243</v>
+      </c>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="61" t="s">
+        <v>244</v>
+      </c>
+      <c r="N10" s="61"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="34">
         <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="F11" s="61" t="s">
-        <v>244</v>
-      </c>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="60"/>
-      <c r="P11" s="38">
+      <c r="F11" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="37">
         <f>SUM(P9:P10)</f>
         <v>150</v>
       </c>
@@ -9211,70 +9202,70 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="C4" s="37" t="s">
         <v>227</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="36" t="s">
         <v>238</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>240</v>
+      <c r="A8" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -9307,26 +9298,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>261</v>
+      <c r="A1" s="34" t="s">
+        <v>259</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>16</v>
       </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="40" t="s">
-        <v>159</v>
+      <c r="E1" s="39" t="s">
+        <v>157</v>
       </c>
       <c r="F1" s="1"/>
-      <c r="G1" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="I1" s="42" t="s">
-        <v>312</v>
-      </c>
-      <c r="M1" s="42" t="s">
-        <v>272</v>
+      <c r="G1" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>310</v>
+      </c>
+      <c r="M1" s="41" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9335,7 +9326,7 @@
       <c r="E2" s="16"/>
       <c r="G2" s="16"/>
       <c r="I2" s="16"/>
-      <c r="M2" s="47"/>
+      <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
@@ -9348,13 +9339,13 @@
         <v>6</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="M3" s="47" t="s">
-        <v>300</v>
+        <v>311</v>
+      </c>
+      <c r="M3" s="46" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -9365,16 +9356,16 @@
         <v>19</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="M4" s="47" t="s">
-        <v>315</v>
+        <v>312</v>
+      </c>
+      <c r="M4" s="46" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -9388,27 +9379,27 @@
         <v>8</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="M5" s="47" t="s">
-        <v>295</v>
+        <v>268</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="M6" s="47" t="s">
-        <v>298</v>
+        <v>269</v>
+      </c>
+      <c r="M6" s="46" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -9418,8 +9409,8 @@
       <c r="E7" s="16">
         <v>9</v>
       </c>
-      <c r="M7" s="47" t="s">
-        <v>316</v>
+      <c r="M7" s="46" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -9427,21 +9418,21 @@
         <v>15</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="M8" s="47" t="s">
-        <v>296</v>
+        <v>197</v>
+      </c>
+      <c r="M8" s="46" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E9" s="16">
         <v>10</v>
       </c>
-      <c r="M9" s="47" t="s">
-        <v>317</v>
+      <c r="M9" s="46" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -9449,10 +9440,10 @@
         <v>12</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="M10" s="51" t="s">
-        <v>318</v>
+        <v>152</v>
+      </c>
+      <c r="M10" s="50" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -9462,8 +9453,8 @@
       <c r="E11" s="16">
         <v>11</v>
       </c>
-      <c r="M11" s="47" t="s">
-        <v>290</v>
+      <c r="M11" s="46" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -9471,220 +9462,220 @@
         <v>14</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="M12" s="47" t="s">
-        <v>291</v>
+        <v>198</v>
+      </c>
+      <c r="M12" s="46" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="52" t="s">
-        <v>274</v>
+      <c r="A13" s="51" t="s">
+        <v>272</v>
       </c>
       <c r="E13" s="16">
         <v>12</v>
       </c>
-      <c r="M13" s="47" t="s">
-        <v>319</v>
+      <c r="M13" s="46" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E14" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="M14" s="47" t="s">
-        <v>320</v>
+        <v>199</v>
+      </c>
+      <c r="M14" s="46" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E15" s="16">
         <v>14</v>
       </c>
-      <c r="M15" s="47" t="s">
+      <c r="M15" s="46" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E16" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="M16" s="50" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M17" s="46" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="18" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M18" s="46" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="19" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M19" s="46" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E16" s="46" t="s">
-        <v>202</v>
-      </c>
-      <c r="M16" s="51" t="s">
+    <row r="20" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M20" s="46" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="21" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M21" s="46" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="22" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M22" s="46" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="23" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M23" s="46" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="24" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M24" s="46" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="25" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M25" s="46" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M26" s="46" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="27" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M27" s="46" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="28" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M28" s="46" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="29" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M29" s="50" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="30" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M30" s="46" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M31" s="46" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M32" s="50" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M33" s="46" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M34" s="46" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M35" s="46" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="36" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M36" s="46" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="37" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M37" s="46" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="38" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M38" s="46" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M17" s="47" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="18" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M18" s="47" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="19" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M19" s="47" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="20" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M20" s="47" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="21" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M21" s="47" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="22" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M22" s="47" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="23" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M23" s="47" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="24" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M24" s="47" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="25" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M25" s="47" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="26" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M26" s="47" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="27" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M27" s="47" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="28" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M28" s="47" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="29" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M29" s="51" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="30" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M30" s="47" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="31" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M31" s="47" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="32" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M32" s="51" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="33" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M33" s="47" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="34" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M34" s="47" t="s">
+    <row r="39" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M39" s="46" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="35" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M35" s="47" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="36" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M36" s="47" t="s">
+    <row r="40" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M40" s="46" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="37" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M37" s="47" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="38" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M38" s="47" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="39" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M39" s="47" t="s">
+    <row r="41" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M41" s="46" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="40" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M40" s="47" t="s">
+    <row r="42" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M42" s="46" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="41" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M41" s="47" t="s">
+    <row r="43" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M43" s="46" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="42" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M42" s="47" t="s">
+    <row r="44" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M44" s="46" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="45" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M45" s="46" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="46" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M46" s="46" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="43" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M43" s="47" t="s">
+    <row r="47" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M47" s="46" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="44" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M44" s="47" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="45" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M45" s="47" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="46" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M46" s="47" t="s">
+    <row r="48" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M48" s="46" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="49" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M49" s="46" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="47" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M47" s="47" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="48" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M48" s="47" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="49" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M49" s="47" t="s">
-        <v>339</v>
-      </c>
-    </row>
     <row r="50" spans="13:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M50" s="47" t="s">
-        <v>297</v>
+      <c r="M50" s="46" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="51" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M51" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
